--- a/data/HR1/Market Data/HR1_market_data_2050.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DE5ED2-4A26-49C1-97CF-F5564E2A6657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E105851-BFD5-4468-98C1-D9AD266D51F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25290" yWindow="3540" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2222,23 +2222,24 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
@@ -2252,7 +2253,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2274,9 +2275,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>53.576994384483022</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>55.733552649015678</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>58.860562132588022</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2682,7 +2683,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2722,9 +2723,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>43.650381320692006</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3003,7 +3004,7 @@
         <v>29.365946107145032</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>22.527875799338403</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3130,7 +3131,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3156,7 +3157,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3195,9 +3196,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>100.43153568643602</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>94.390541058680455</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>115.36621684949834</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -3603,7 +3604,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3642,9 +3643,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>62.402635477683191</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>76.770973394393451</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>66.597770635846771</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4050,7 +4051,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4089,9 +4090,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4269,7 +4270,7 @@
         <v>51.406957630797045</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>57.283578901648518</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>60.653201189980784</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4497,7 +4498,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4537,9 +4538,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>16.549808198955308</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>14.326386565128612</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4919,7 +4920,7 @@
         <v>15.522000085205232</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4945,7 +4946,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -4971,7 +4972,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5010,9 +5011,9 @@
       <selection activeCell="B2" sqref="B2:Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5089,7 +5090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>74.253892299495291</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5291,7 +5292,7 @@
         <v>78.449027457658872</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5392,7 +5393,7 @@
         <v>83.902703163271525</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5418,7 +5419,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -5457,9 +5458,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>58.689940862708433</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>54.93529489615203</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>63.325565212479184</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5865,7 +5866,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
